--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-med-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-med-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T15:11:21+00:00</t>
+    <t>2024-04-25T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>85</v>
